--- a/Participants.xlsx
+++ b/Participants.xlsx
@@ -3,6 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+  </bookViews>
   <sheets>
     <sheet sheetId="1" name="Participants" state="visible" r:id="rId4"/>
   </sheets>
@@ -11,21 +14,77 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>test</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Номер телефона</t>
+  </si>
+  <si>
+    <t>Мессенджер</t>
+  </si>
+  <si>
+    <t>Вопрос №1</t>
+  </si>
+  <si>
+    <t>Вопрос №2</t>
+  </si>
+  <si>
+    <t>Вопрос №3</t>
+  </si>
+  <si>
+    <t>Вопрос №4</t>
+  </si>
+  <si>
+    <t>Вопрос №5</t>
+  </si>
+  <si>
+    <t>Вопрос №6</t>
+  </si>
+  <si>
+    <t>Вопрос №7</t>
+  </si>
+  <si>
+    <t>Вопрос №8</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>12312312312</t>
+  </si>
+  <si>
+    <t>Telegram</t>
+  </si>
+  <si>
+    <t>answer1</t>
+  </si>
+  <si>
+    <t>answer2</t>
+  </si>
+  <si>
+    <t>answer3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <sz val="14"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -49,8 +108,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,16 +450,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="11" width="25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" ht="18.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/Participants.xlsx
+++ b/Participants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="17">
   <si>
     <t>Имя</t>
   </si>
@@ -450,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D4" sqref="D4"/>
@@ -537,6 +537,206 @@
         <v>16</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/Participants.xlsx
+++ b/Participants.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154725F2-2068-4AE9-8453-C6FE8AD71320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Participants" state="visible" r:id="rId4"/>
+    <sheet name="Participants" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Имя</t>
   </si>
@@ -47,45 +48,27 @@
   </si>
   <si>
     <t>Вопрос №8</t>
-  </si>
-  <si>
-    <t>ADMIN</t>
-  </si>
-  <si>
-    <t>12312312312</t>
-  </si>
-  <si>
-    <t>Telegram</t>
-  </si>
-  <si>
-    <t>answer1</t>
-  </si>
-  <si>
-    <t>answer2</t>
-  </si>
-  <si>
-    <t>answer3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="14"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,7 +96,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -449,19 +432,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="11" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,249 +479,9 @@
         <v>10</v>
       </c>
       <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/Participants.xlsx
+++ b/Participants.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154725F2-2068-4AE9-8453-C6FE8AD71320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3917B8A5-B88B-4AB1-B943-0DD1F08408A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Имя</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Вопрос №8</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -433,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,6 +483,11 @@
       </c>
       <c r="L1" s="1"/>
     </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>

--- a/Participants.xlsx
+++ b/Participants.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3917B8A5-B88B-4AB1-B943-0DD1F08408A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4D31D9-899E-4252-BF76-EBD87D6F206D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Имя</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Вопрос №8</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
 </sst>
 </file>
@@ -436,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,11 +480,6 @@
       </c>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>

--- a/Participants.xlsx
+++ b/Participants.xlsx
@@ -1,74 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4D31D9-899E-4252-BF76-EBD87D6F206D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Participants" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Participants" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Имя</t>
-  </si>
-  <si>
-    <t>Номер телефона</t>
-  </si>
-  <si>
-    <t>Мессенджер</t>
-  </si>
-  <si>
-    <t>Вопрос №1</t>
-  </si>
-  <si>
-    <t>Вопрос №2</t>
-  </si>
-  <si>
-    <t>Вопрос №3</t>
-  </si>
-  <si>
-    <t>Вопрос №4</t>
-  </si>
-  <si>
-    <t>Вопрос №5</t>
-  </si>
-  <si>
-    <t>Вопрос №6</t>
-  </si>
-  <si>
-    <t>Вопрос №7</t>
-  </si>
-  <si>
-    <t>Вопрос №8</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -91,12 +44,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -432,56 +384,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="11" width="25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1"/>
-    </row>
-  </sheetData>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>